--- a/test-cases/test-cases.xlsx
+++ b/test-cases/test-cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -31,31 +31,130 @@
     <t xml:space="preserve">Input</t>
   </si>
   <si>
+    <t xml:space="preserve">Steps to Execute</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expected Output</t>
   </si>
   <si>
-    <t xml:space="preserve">Steps to Execute</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC1</t>
   </si>
   <si>
+    <t xml:space="preserve">Valet parking – 5 hours or less – upper boundary (5 hours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to https://www.shino.de/parkcalc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated parking costs: $12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valet Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Choose a Parking Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shows the parking duration correctly as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbitrary date and time that is not in the past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Input entry date and time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0 Days, 5 Hours, 0 Minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputted entry date and time + 5 hours exactly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Input leaving date and time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Click on Calculate button</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC2</t>
   </si>
   <si>
+    <t xml:space="preserve">Valet parking – 5 hours or less – lower boundary (1 minute)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0 Days, 0 Hours, 1 Minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputted entry date and time + 1 minute exactly</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC3</t>
   </si>
   <si>
+    <t xml:space="preserve">Valet parking – 5 hours or less – lower boundary less 1 minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated parking costs: $0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0 Days, 0 Hours, 0 Minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaving date and time = Inputted entry date and time</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC4</t>
   </si>
   <si>
+    <t xml:space="preserve">Valet parking – 5 hours or less – upper boundary plus 1 minute (this is also the lower boundary of the next partition: per day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated parking costs: $18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0 Days, 5 Hours, 1 Minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputted entry date and time + 5 hours 1 minute exactly</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC5</t>
   </si>
   <si>
+    <t xml:space="preserve">Valet parking – per day – duration: 23 Hours 59 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0 Days, 23 Hours, 59 Minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputted entry date and time + 23 hours 59 minutes exactly</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC6</t>
   </si>
   <si>
+    <t xml:space="preserve">Valet parking – per day – duration: 24 Hours exactly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1 Days, 0 Hours, 0 Minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputted entry date and time + 24 hours exactly</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valet parking – per day – duration: 24 Hours 1 Minute exactly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated parking costs: $36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1 Days, 0 Hours, 1 Minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputted entry date and time + 24 hours 1 minute exactly</t>
   </si>
   <si>
     <t xml:space="preserve">TC8</t>
@@ -225,47 +324,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,14 +559,16 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.71484375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="47.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="56.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="47.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="7" style="1" width="47.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
@@ -494,264 +595,432 @@
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="C35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="E35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -788,7 +1057,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -825,7 +1094,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>

--- a/test-cases/test-cases.xlsx
+++ b/test-cases/test-cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Expected Output</t>
   </si>
   <si>
+    <t xml:space="preserve">Actual Output (complete only if TC Fails)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC1</t>
   </si>
   <si>
@@ -160,7 +163,109 @@
     <t xml:space="preserve">TC8</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Time input field - input is in </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> range for AM/PM time format, leaving &gt; entry</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputted values should not change after executing step 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking Lot changed from Short Term to Valet Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-Term (hourly) Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated parking costs: $22 (2 + 20*1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00 PM changed to 13:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: Current Date; Time: 01:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: Current Date + 1; Time: 12:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0 Days, 11 Hours, 0 Minutes)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Time input field - input is in </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> range for AM/PM time format, leaving &gt; entry</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should return an error and should not provide a calculation, as the 00:00 - 00:59 range is invalid in an AM/PM 12 hour format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01 PM changed to 12:01 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: Current Date + 1; Time: 00:01 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system executed the calculation and returned cost as $24, duration (0 Days, 23 Hours, 1 Minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">TC10</t>
@@ -173,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +318,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -248,16 +345,51 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -293,6 +425,34 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -319,7 +479,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,23 +500,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,7 +524,59 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,6 +589,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFE06666"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -559,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.71484375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,7 +845,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,545 +861,617 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="9" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11" t="s">
+      <c r="D34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="E38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11" t="s">
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="E40" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11" t="s">
+      <c r="E43" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
